--- a/TestData/AdressInfo.xlsx
+++ b/TestData/AdressInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavig\eclipse-workspace\JustEastTakeaway\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C8A95B-7BD1-485D-BBED-D4EB33C38B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4737B6-6DAA-40A2-93EE-CB28E4549E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>testuser@test.test</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
@@ -107,8 +113,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,65 +399,68 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>2415</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>1234567890</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{06003D6B-D06F-4512-80AD-9E31FEF17141}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{236586F9-993A-42FF-ADC5-C857010FACCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
